--- a/Strikers_performance.xlsx
+++ b/Strikers_performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahriar/Desktop/Data/Final project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryashah51\SportsAnalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E138A3-1712-C748-996B-1CD68C4D37E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC2599C-9724-4500-A24A-3CCAB6E40D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,11 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,30 +478,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -550,7 +561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -609,7 +620,7 @@
         <v>11.45138758562954</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -668,7 +679,7 @@
         <v>8.2436889282649073</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -727,7 +738,7 @@
         <v>9.5068349468421864</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -786,7 +797,7 @@
         <v>8.1996526301995356</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -845,7 +856,7 @@
         <v>6.6653332375670393</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -904,7 +915,7 @@
         <v>3.516168130982174</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -963,7 +974,7 @@
         <v>8.4109113740726063</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1022,7 +1033,7 @@
         <v>6.4487867907952179</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>6.3993291876693927</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1140,7 +1151,7 @@
         <v>7.0020254880417756</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1199,7 +1210,7 @@
         <v>11.48972281324699</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1258,7 +1269,7 @@
         <v>12.809675084507949</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1317,7 +1328,7 @@
         <v>8.4344158750568017</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1376,7 +1387,7 @@
         <v>7.0704655521765449</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1435,7 +1446,7 @@
         <v>5.6455471650975788</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1494,7 +1505,7 @@
         <v>8.9370803230921378</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1553,7 +1564,7 @@
         <v>11.565811200130289</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>7.5053192259496866</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1671,7 +1682,7 @@
         <v>3.242007918493552</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1730,7 +1741,7 @@
         <v>9.3400993436310475</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1789,7 +1800,7 @@
         <v>9.9707994229000985</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1848,7 +1859,7 @@
         <v>4.8283087192283052</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1907,7 +1918,7 @@
         <v>8.3529683673259054</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1966,7 +1977,7 @@
         <v>8.9024520322721976</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2025,7 +2036,7 @@
         <v>7.8537853959821229</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2084,7 +2095,7 @@
         <v>6.4184581618292924</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2143,7 +2154,7 @@
         <v>10.031874447127111</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2202,7 +2213,7 @@
         <v>7.1932405080626349</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2261,7 +2272,7 @@
         <v>5.0296276746001354</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2320,7 +2331,7 @@
         <v>3.9010510286606381</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2379,7 +2390,7 @@
         <v>10.521699039998619</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2438,7 +2449,7 @@
         <v>9.2333279529422363</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2497,7 +2508,7 @@
         <v>8.1759470942583388</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>7.1194507262983926</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2615,7 +2626,7 @@
         <v>6.942003171593746</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2674,7 +2685,7 @@
         <v>5.8485267031167769</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2733,7 +2744,7 @@
         <v>7.1370887108802306</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2792,7 +2803,7 @@
         <v>3.7598255697596512</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2851,7 +2862,7 @@
         <v>6.5278726930629718</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2910,7 +2921,7 @@
         <v>7.3781249672978122</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2969,7 +2980,7 @@
         <v>9.2197600943808382</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3028,7 +3039,7 @@
         <v>7.9201470732532728</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3087,7 +3098,7 @@
         <v>9.5898462277511172</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3146,7 +3157,7 @@
         <v>10.698270210226861</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3205,7 +3216,7 @@
         <v>10.1163401876482</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3264,7 +3275,7 @@
         <v>8.941019694757113</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3323,7 +3334,7 @@
         <v>8.0237253583615686</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3382,7 +3393,7 @@
         <v>6.0384239831728816</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3441,7 +3452,7 @@
         <v>9.4798881027586326</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3500,7 +3511,7 @@
         <v>11.35949476444306</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3559,7 +3570,7 @@
         <v>8.6842120793008366</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3618,7 +3629,7 @@
         <v>11.83451829685225</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3677,7 +3688,7 @@
         <v>4.9488565838778316</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3736,7 +3747,7 @@
         <v>5.6916732304409177</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3795,7 +3806,7 @@
         <v>9.7104030154965244</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3854,7 +3865,7 @@
         <v>8.5285804203065023</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3913,7 +3924,7 @@
         <v>10.627564353143621</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3972,7 +3983,7 @@
         <v>7.9690567185465211</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4031,7 +4042,7 @@
         <v>6.2640491549433364</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4090,7 +4101,7 @@
         <v>7.5728135155899148</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4149,7 +4160,7 @@
         <v>4.9346320581525323</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4208,7 +4219,7 @@
         <v>5.7428186538059309</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4267,7 +4278,7 @@
         <v>9.9448879958360195</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4326,7 +4337,7 @@
         <v>9.745574828939219</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4385,7 +4396,7 @@
         <v>8.7260085696121532</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4444,7 +4455,7 @@
         <v>4.5578449580790608</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4503,7 +4514,7 @@
         <v>7.283192848974223</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4562,7 +4573,7 @@
         <v>5.5500002226798983</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4621,7 +4632,7 @@
         <v>10.35306650757553</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4680,7 +4691,7 @@
         <v>6.8325557328747966</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4733,7 +4744,7 @@
         <v>5.8285045784369007</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4789,7 +4800,7 @@
         <v>8.0595923302428485</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4842,7 +4853,7 @@
         <v>6.7196910863307764</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4895,7 +4906,7 @@
         <v>10.96748782040741</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4951,7 +4962,7 @@
         <v>6.5303782049316181</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5010,7 +5021,7 @@
         <v>5.201543481550738</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5069,7 +5080,7 @@
         <v>3.6941729684849691</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5122,7 +5133,7 @@
         <v>7.9384269951731694</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5175,7 +5186,7 @@
         <v>6.8761397722841471</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5231,7 +5242,7 @@
         <v>5.1421907869765464</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5290,7 +5301,7 @@
         <v>10.37845292251157</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5349,7 +5360,7 @@
         <v>9.3344902948584831</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5408,7 +5419,7 @@
         <v>7.9435642421255404</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5467,7 +5478,7 @@
         <v>10.72865248834173</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5526,7 +5537,7 @@
         <v>9.325072066797226</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5585,7 +5596,7 @@
         <v>6.3542881969631351</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5644,7 +5655,7 @@
         <v>5.9215596720184678</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5703,7 +5714,7 @@
         <v>9.6359630889077224</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5762,7 +5773,7 @@
         <v>8.7927339129347022</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5821,7 +5832,7 @@
         <v>8.3394955359413228</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5880,7 +5891,7 @@
         <v>6.3070043942621856</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5939,7 +5950,7 @@
         <v>9.2158951340115074</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5998,7 +6009,7 @@
         <v>6.4890022337321014</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6057,7 +6068,7 @@
         <v>7.7960266908126439</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6116,7 +6127,7 @@
         <v>10.89388829277396</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6175,7 +6186,7 @@
         <v>6.678331528379708</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6234,7 +6245,7 @@
         <v>4.8540214858542781</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6293,7 +6304,7 @@
         <v>5.8949056162597788</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6352,7 +6363,7 @@
         <v>9.9885976533752459</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6411,7 +6422,7 @@
         <v>8.5094622747604198</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6470,7 +6481,7 @@
         <v>7.7422452426224933</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6529,7 +6540,7 @@
         <v>6.9818123893768611</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6588,7 +6599,7 @@
         <v>8.9707198151063796</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6647,7 +6658,7 @@
         <v>6.3017902980195526</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6706,7 +6717,7 @@
         <v>8.6113311372851911</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6765,7 +6776,7 @@
         <v>6.5374908623740859</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6824,7 +6835,7 @@
         <v>6.2046812294498919</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6883,7 +6894,7 @@
         <v>6.7250251303499766</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6942,7 +6953,7 @@
         <v>7.2491851070320763</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7001,7 +7012,7 @@
         <v>7.9023403281325937</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7060,7 +7071,7 @@
         <v>8.4709115902222294</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7119,7 +7130,7 @@
         <v>0.62326941714311168</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7178,7 +7189,7 @@
         <v>6.3846988845064701</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7237,7 +7248,7 @@
         <v>7.2168600452879206</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7296,7 +7307,7 @@
         <v>11.010124077216661</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7355,7 +7366,7 @@
         <v>5.8399947832357357</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7414,7 +7425,7 @@
         <v>8.3255932361998255</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7473,7 +7484,7 @@
         <v>10.990060619471681</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7532,7 +7543,7 @@
         <v>5.3740629401054543</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7591,7 +7602,7 @@
         <v>8.7879504517288041</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7650,7 +7661,7 @@
         <v>6.3954563321309594</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7709,7 +7720,7 @@
         <v>6.9907325154215307</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7768,7 +7779,7 @@
         <v>6.3937783320933708</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7827,7 +7838,7 @@
         <v>6.5362853831682282</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7886,7 +7897,7 @@
         <v>13.443824295812989</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7945,7 +7956,7 @@
         <v>9.688911744143331</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8004,7 +8015,7 @@
         <v>10.203475723572421</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8063,7 +8074,7 @@
         <v>8.9839869736729927</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8122,7 +8133,7 @@
         <v>4.7874864231960839</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8181,7 +8192,7 @@
         <v>8.7899159406466136</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8240,7 +8251,7 @@
         <v>10.14585922901469</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8299,7 +8310,7 @@
         <v>6.2932010519217769</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8358,7 +8369,7 @@
         <v>9.9306533343222529</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8417,7 +8428,7 @@
         <v>9.4086724197081573</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8476,7 +8487,7 @@
         <v>11.70408008962734</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8535,7 +8546,7 @@
         <v>7.1644339749727628</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8594,7 +8605,7 @@
         <v>5.8047780354485461</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8653,7 +8664,7 @@
         <v>7.2767437812549094</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8712,7 +8723,7 @@
         <v>10.871141986327251</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8771,7 +8782,7 @@
         <v>4.343188238316074</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8830,7 +8841,7 @@
         <v>3.863248569137935</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8889,7 +8900,7 @@
         <v>8.178790557863227</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8948,7 +8959,7 @@
         <v>7.1148214144516881</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9007,7 +9018,7 @@
         <v>8.0154557863513691</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9066,7 +9077,7 @@
         <v>9.8906235424717295</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9125,7 +9136,7 @@
         <v>6.8948613077622953</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9184,7 +9195,7 @@
         <v>4.2539883381387593</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9243,7 +9254,7 @@
         <v>12.08896311439989</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9302,7 +9313,7 @@
         <v>6.0055434251224478</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9361,7 +9372,7 @@
         <v>5.8819257559758054</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9420,7 +9431,7 @@
         <v>10.207440027445189</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9479,7 +9490,7 @@
         <v>7.231021757916964</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9538,7 +9549,7 @@
         <v>7.8732202959303788</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9597,7 +9608,7 @@
         <v>8.9655802481206361</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9656,7 +9667,7 @@
         <v>10.16716620621999</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9715,7 +9726,7 @@
         <v>7.3330786136364559</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9774,7 +9785,7 @@
         <v>11.0399040118286</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9833,7 +9844,7 @@
         <v>3.7284003025303889</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9892,7 +9903,7 @@
         <v>9.5195744739061539</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9951,7 +9962,7 @@
         <v>6.3209448839646853</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10010,7 +10021,7 @@
         <v>10.74454263321598</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10069,7 +10080,7 @@
         <v>8.2840889576610905</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10128,7 +10139,7 @@
         <v>6.6541893359811972</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10187,7 +10198,7 @@
         <v>9.3256821860432648</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10246,7 +10257,7 @@
         <v>9.7863766944145034</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10305,7 +10316,7 @@
         <v>9.2837882457172771</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10364,7 +10375,7 @@
         <v>5.9406075207338791</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10423,7 +10434,7 @@
         <v>7.0319657527558306</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10482,7 +10493,7 @@
         <v>7.9918543257571297</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10541,7 +10552,7 @@
         <v>7.9174806946998793</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10600,7 +10611,7 @@
         <v>9.4994909508766945</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10659,7 +10670,7 @@
         <v>3.970197534986784</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10718,7 +10729,7 @@
         <v>8.6686541091070062</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10777,7 +10788,7 @@
         <v>7.4200372911267198</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10836,7 +10847,7 @@
         <v>6.3229987672320958</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10895,7 +10906,7 @@
         <v>6.5150264444608013</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10954,7 +10965,7 @@
         <v>7.5709246709640734</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -11013,7 +11024,7 @@
         <v>0.79782979108096441</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -11072,7 +11083,7 @@
         <v>6.5974208584168998</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11131,7 +11142,7 @@
         <v>6.2483703507074129</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11190,7 +11201,7 @@
         <v>9.0655664186452487</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11249,7 +11260,7 @@
         <v>6.388946634978959</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11308,7 +11319,7 @@
         <v>7.56977239965902</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11367,7 +11378,7 @@
         <v>11.0845532553226</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11426,7 +11437,7 @@
         <v>9.9887030396308472</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11485,7 +11496,7 @@
         <v>9.8045427998869048</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -11544,7 +11555,7 @@
         <v>7.0002551391782966</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -11603,7 +11614,7 @@
         <v>9.0860645585793041</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11662,7 +11673,7 @@
         <v>7.5322043990928123</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11721,7 +11732,7 @@
         <v>7.6078135786461241</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11780,7 +11791,7 @@
         <v>8.8193706874930999</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11839,7 +11850,7 @@
         <v>6.8060128231581354</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11898,7 +11909,7 @@
         <v>10.98600620888641</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11957,7 +11968,7 @@
         <v>7.6797397208041254</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -12016,7 +12027,7 @@
         <v>9.2367211325193299</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -12075,7 +12086,7 @@
         <v>10.9112009585146</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -12134,7 +12145,7 @@
         <v>10.06330754915035</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -12193,7 +12204,7 @@
         <v>5.1821617946189509</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -12252,7 +12263,7 @@
         <v>8.8897917900197676</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -12311,7 +12322,7 @@
         <v>9.7014387889212941</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -12370,7 +12381,7 @@
         <v>9.7837260443214973</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -12429,7 +12440,7 @@
         <v>5.7734103317707373</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -12488,7 +12499,7 @@
         <v>6.6859295259653519</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -12547,7 +12558,7 @@
         <v>9.9891164714832428</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -12606,7 +12617,7 @@
         <v>6.4764792586347086</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -12665,7 +12676,7 @@
         <v>7.4006078866713718</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -12724,7 +12735,7 @@
         <v>11.151751619003941</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -12783,7 +12794,7 @@
         <v>7.9044014992304206</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -12842,7 +12853,7 @@
         <v>6.5464517243323144</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -12901,7 +12912,7 @@
         <v>6.2447652862741894</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -12960,7 +12971,7 @@
         <v>8.6654386591703751</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -13019,7 +13030,7 @@
         <v>5.3337039830455826</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -13078,7 +13089,7 @@
         <v>7.5053280722071634</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -13137,7 +13148,7 @@
         <v>8.6664610699800431</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -13196,7 +13207,7 @@
         <v>10.598299641095331</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -13255,7 +13266,7 @@
         <v>9.335096160739992</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -13314,7 +13325,7 @@
         <v>6.5718697640356423</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -13373,7 +13384,7 @@
         <v>10.35683863512744</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -13432,7 +13443,7 @@
         <v>7.4009699249050449</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -13491,7 +13502,7 @@
         <v>5.5285939559011821</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -13550,7 +13561,7 @@
         <v>7.6559172814690548</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -13609,7 +13620,7 @@
         <v>10.876338402291401</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -13668,7 +13679,7 @@
         <v>8.3304801001298507</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -13727,7 +13738,7 @@
         <v>8.0250437286595719</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -13786,7 +13797,7 @@
         <v>11.274423289405711</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -13845,7 +13856,7 @@
         <v>5.1372903058911454</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -13904,7 +13915,7 @@
         <v>5.4288017718944559</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -13963,7 +13974,7 @@
         <v>4.7683070580663358</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -14022,7 +14033,7 @@
         <v>8.7452963729601105</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -14081,7 +14092,7 @@
         <v>8.3329862542302493</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -14140,7 +14151,7 @@
         <v>11.08547273455955</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -14199,7 +14210,7 @@
         <v>8.4869501542735399</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -14258,7 +14269,7 @@
         <v>7.1916856810413936</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -14317,7 +14328,7 @@
         <v>8.003589745756214</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -14376,7 +14387,7 @@
         <v>8.2354148369219153</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -14435,7 +14446,7 @@
         <v>4.6564774533436646</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -14494,7 +14505,7 @@
         <v>13.42066328866979</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -14553,7 +14564,7 @@
         <v>9.0397420362038226</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -14612,7 +14623,7 @@
         <v>8.4200166160451779</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -14671,7 +14682,7 @@
         <v>9.2303279685571606</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -14730,7 +14741,7 @@
         <v>9.4188219611732098</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -14789,7 +14800,7 @@
         <v>7.7188930289951374</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -14848,7 +14859,7 @@
         <v>6.7375177275185987</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -14907,7 +14918,7 @@
         <v>9.1989013726434088</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -14966,7 +14977,7 @@
         <v>8.771421681062904</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -15025,7 +15036,7 @@
         <v>6.380219801821184</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -15084,7 +15095,7 @@
         <v>10.838071222734531</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -15143,7 +15154,7 @@
         <v>8.5867040726459667</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -15202,7 +15213,7 @@
         <v>9.459638724535262</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -15261,7 +15272,7 @@
         <v>10.783841775359839</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -15320,7 +15331,7 @@
         <v>8.043777642329669</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -15379,7 +15390,7 @@
         <v>8.6339040139682304</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -15438,7 +15449,7 @@
         <v>9.620054477012232</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -15497,7 +15508,7 @@
         <v>6.550277832399896</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -15556,7 +15567,7 @@
         <v>8.1081033256920012</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -15615,7 +15626,7 @@
         <v>8.2510971733022966</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -15674,7 +15685,7 @@
         <v>6.0878828966332108</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -15733,7 +15744,7 @@
         <v>12.63527357734776</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -15792,7 +15803,7 @@
         <v>5.185413113015195</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -15851,7 +15862,7 @@
         <v>5.4037921926256844</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -15910,7 +15921,7 @@
         <v>10.628453151407159</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -15969,7 +15980,7 @@
         <v>9.4265325015930852</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -16028,7 +16039,7 @@
         <v>5.9480703650384443</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -16087,7 +16098,7 @@
         <v>9.2145780302033859</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -16146,7 +16157,7 @@
         <v>10.935700889994621</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -16205,7 +16216,7 @@
         <v>7.9394738848060289</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -16264,7 +16275,7 @@
         <v>13.197645800149161</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -16323,7 +16334,7 @@
         <v>4.5518763782639287</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -16382,7 +16393,7 @@
         <v>9.3876469077182048</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -16441,7 +16452,7 @@
         <v>10.333056672442011</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -16500,7 +16511,7 @@
         <v>9.7826878032104929</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -16559,7 +16570,7 @@
         <v>7.5912885467087037</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -16618,7 +16629,7 @@
         <v>7.4191170359777008</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -16677,7 +16688,7 @@
         <v>8.8882903421745141</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -16736,7 +16747,7 @@
         <v>9.6315089733041397</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -16795,7 +16806,7 @@
         <v>9.2049468725647259</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -16854,7 +16865,7 @@
         <v>10.08011578158678</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -16913,7 +16924,7 @@
         <v>5.9622600858665296</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -16972,7 +16983,7 @@
         <v>7.5444580417527307</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -17031,7 +17042,7 @@
         <v>6.119968135752492</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -17090,7 +17101,7 @@
         <v>7.2277744478277164</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -17149,7 +17160,7 @@
         <v>10.030441783628611</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -17208,7 +17219,7 @@
         <v>8.2159678414504569</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -17267,7 +17278,7 @@
         <v>13.21371832629954</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -17326,7 +17337,7 @@
         <v>8.3868127343794345</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -17385,7 +17396,7 @@
         <v>8.1193837611594724</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -17444,7 +17455,7 @@
         <v>8.2123658388804319</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -17503,7 +17514,7 @@
         <v>6.7243826142801284</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -17562,7 +17573,7 @@
         <v>7.8843267752448121</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -17621,7 +17632,7 @@
         <v>10.25557605422329</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -17680,7 +17691,7 @@
         <v>8.2279413362555438</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -17739,7 +17750,7 @@
         <v>6.4130805402330573</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -17798,7 +17809,7 @@
         <v>6.1498307590427297</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -17857,7 +17868,7 @@
         <v>7.0995962166683144</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -17916,7 +17927,7 @@
         <v>8.1477268688217599</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -17975,7 +17986,7 @@
         <v>10.387173070952519</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -18034,7 +18045,7 @@
         <v>5.3190227172671261</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -18093,7 +18104,7 @@
         <v>7.3603474442224872</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
@@ -18152,7 +18163,7 @@
         <v>8.2886200388701585</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
@@ -18211,7 +18222,7 @@
         <v>4.3325884647411304</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -18270,7 +18281,7 @@
         <v>6.3328034340671877</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -18329,7 +18340,7 @@
         <v>6.6402229205276271</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -18388,7 +18399,7 @@
         <v>6.4080592522990036</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -18447,7 +18458,7 @@
         <v>8.3837790900432942</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -18506,7 +18517,7 @@
         <v>7.6788807809964048</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -18565,7 +18576,7 @@
         <v>6.8894277947979274</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -18624,7 +18635,7 @@
         <v>8.8559252531052692</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -18683,7 +18694,7 @@
         <v>11.446149435292501</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -18742,7 +18753,7 @@
         <v>11.278513033483501</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -18801,7 +18812,7 @@
         <v>4.1544564558753274</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -18860,7 +18871,7 @@
         <v>9.1541443676702787</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -18919,7 +18930,7 @@
         <v>7.6439534198723234</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -18978,7 +18989,7 @@
         <v>8.3103106857307125</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -19037,7 +19048,7 @@
         <v>7.2034339329149031</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -19096,7 +19107,7 @@
         <v>8.2351772597744048</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
@@ -19155,7 +19166,7 @@
         <v>8.3028147921440372</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -19214,7 +19225,7 @@
         <v>6.8420964853021538</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -19273,7 +19284,7 @@
         <v>6.2072649043496382</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
@@ -19332,7 +19343,7 @@
         <v>7.1026086347610313</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
@@ -19391,7 +19402,7 @@
         <v>8.4685185289135312</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -19450,7 +19461,7 @@
         <v>9.197992683368529</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -19509,7 +19520,7 @@
         <v>9.7066979546802941</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -19568,7 +19579,7 @@
         <v>7.011619953866175</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -19627,7 +19638,7 @@
         <v>8.5676891346054731</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -19686,7 +19697,7 @@
         <v>9.9250051839065971</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -19745,7 +19756,7 @@
         <v>10.33118979028826</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -19804,7 +19815,7 @@
         <v>7.8823342917369557</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -19863,7 +19874,7 @@
         <v>7.5581365501207749</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -19922,7 +19933,7 @@
         <v>8.3822484676727846</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -19981,7 +19992,7 @@
         <v>5.7005850542051881</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
@@ -20040,7 +20051,7 @@
         <v>7.6127809779289839</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
@@ -20099,7 +20110,7 @@
         <v>9.48917279694626</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
@@ -20158,7 +20169,7 @@
         <v>9.2838942588874023</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
@@ -20217,7 +20228,7 @@
         <v>7.4594647912722216</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
@@ -20276,7 +20287,7 @@
         <v>8.435436402174334</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
@@ -20335,7 +20346,7 @@
         <v>6.3506993194186254</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
@@ -20394,7 +20405,7 @@
         <v>9.4069842964500499</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
@@ -20453,7 +20464,7 @@
         <v>7.8443571277270534</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
@@ -20512,7 +20523,7 @@
         <v>7.4480970966077233</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
@@ -20571,7 +20582,7 @@
         <v>7.2765523278132269</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
@@ -20630,7 +20641,7 @@
         <v>7.874212266200284</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
@@ -20689,7 +20700,7 @@
         <v>7.1042447101360828</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
@@ -20748,7 +20759,7 @@
         <v>9.316286072005127</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
@@ -20807,7 +20818,7 @@
         <v>7.2094329039676381</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
@@ -20866,7 +20877,7 @@
         <v>11.18592819205476</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>346</v>
       </c>
@@ -20925,7 +20936,7 @@
         <v>10.93042100696276</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
@@ -20984,7 +20995,7 @@
         <v>6.2169130202909901</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>348</v>
       </c>
@@ -21043,7 +21054,7 @@
         <v>8.1394085388585609</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>349</v>
       </c>
@@ -21102,7 +21113,7 @@
         <v>6.6986867573276099</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>350</v>
       </c>
@@ -21161,7 +21172,7 @@
         <v>7.3467048736227767</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>351</v>
       </c>
@@ -21220,7 +21231,7 @@
         <v>12.00485493528959</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>352</v>
       </c>
@@ -21279,7 +21290,7 @@
         <v>7.3848571657684019</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>353</v>
       </c>
@@ -21338,7 +21349,7 @@
         <v>8.7204520741548581</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>354</v>
       </c>
@@ -21397,7 +21408,7 @@
         <v>9.0826425880165562</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>355</v>
       </c>
@@ -21456,7 +21467,7 @@
         <v>5.9987412550335186</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>356</v>
       </c>
@@ -21515,7 +21526,7 @@
         <v>6.2898090511815914</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>357</v>
       </c>
@@ -21574,7 +21585,7 @@
         <v>5.5879552571837623</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>358</v>
       </c>
@@ -21633,7 +21644,7 @@
         <v>6.2280585322044466</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>359</v>
       </c>
@@ -21692,7 +21703,7 @@
         <v>2.299939781365635</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>360</v>
       </c>
@@ -21751,7 +21762,7 @@
         <v>9.0891648015872555</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>361</v>
       </c>
@@ -21810,7 +21821,7 @@
         <v>12.10838768251214</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>362</v>
       </c>
@@ -21869,7 +21880,7 @@
         <v>8.2956414780730547</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>363</v>
       </c>
@@ -21928,7 +21939,7 @@
         <v>5.1674622813187856</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>364</v>
       </c>
@@ -21987,7 +21998,7 @@
         <v>6.7144472342001036</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>365</v>
       </c>
@@ -22046,7 +22057,7 @@
         <v>7.0822463099500066</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>366</v>
       </c>
@@ -22105,7 +22116,7 @@
         <v>5.9648304455732486</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>367</v>
       </c>
@@ -22164,7 +22175,7 @@
         <v>9.7203652767903126</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>368</v>
       </c>
@@ -22223,7 +22234,7 @@
         <v>9.6205200887506681</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>369</v>
       </c>
@@ -22282,7 +22293,7 @@
         <v>5.6890964123646803</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>370</v>
       </c>
@@ -22341,7 +22352,7 @@
         <v>9.4501620888950164</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>371</v>
       </c>
@@ -22400,7 +22411,7 @@
         <v>11.05362532715453</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>372</v>
       </c>
@@ -22459,7 +22470,7 @@
         <v>11.805116410459121</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>373</v>
       </c>
@@ -22518,7 +22529,7 @@
         <v>13.73042404617193</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>374</v>
       </c>
@@ -22577,7 +22588,7 @@
         <v>6.1960147011136053</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>375</v>
       </c>
@@ -22636,7 +22647,7 @@
         <v>13.64844085279041</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>376</v>
       </c>
@@ -22695,7 +22706,7 @@
         <v>7.2915872229824226</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>377</v>
       </c>
@@ -22754,7 +22765,7 @@
         <v>6.8150690892389711</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>378</v>
       </c>
@@ -22813,7 +22824,7 @@
         <v>8.6541447497556909</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>379</v>
       </c>
@@ -22872,7 +22883,7 @@
         <v>6.8358773318139754</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>380</v>
       </c>
@@ -22931,7 +22942,7 @@
         <v>8.7980882812930528</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>381</v>
       </c>
@@ -22990,7 +23001,7 @@
         <v>5.3598456245253967</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>382</v>
       </c>
@@ -23049,7 +23060,7 @@
         <v>7.522494795873131</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>383</v>
       </c>
@@ -23108,7 +23119,7 @@
         <v>10.57116446872336</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>384</v>
       </c>
@@ -23167,7 +23178,7 @@
         <v>7.8858774171376878</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>385</v>
       </c>
@@ -23226,7 +23237,7 @@
         <v>8.2831915734797654</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>386</v>
       </c>
@@ -23285,7 +23296,7 @@
         <v>8.9505172094346221</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>387</v>
       </c>
@@ -23344,7 +23355,7 @@
         <v>10.34132325863532</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>388</v>
       </c>
@@ -23403,7 +23414,7 @@
         <v>4.6895505756211344</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>389</v>
       </c>
@@ -23462,7 +23473,7 @@
         <v>9.1690481036748697</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>390</v>
       </c>
@@ -23521,7 +23532,7 @@
         <v>7.4637217215164737</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>391</v>
       </c>
@@ -23580,7 +23591,7 @@
         <v>8.3332757906236772</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>392</v>
       </c>
@@ -23639,7 +23650,7 @@
         <v>10.119900339524751</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>393</v>
       </c>
@@ -23698,7 +23709,7 @@
         <v>5.6116266971763116</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>394</v>
       </c>
@@ -23757,7 +23768,7 @@
         <v>5.974711117113821</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>395</v>
       </c>
@@ -23816,7 +23827,7 @@
         <v>4.1291400805723866</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>396</v>
       </c>
@@ -23875,7 +23886,7 @@
         <v>6.9016821164724469</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>397</v>
       </c>
@@ -23934,7 +23945,7 @@
         <v>10.660864688757631</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>398</v>
       </c>
@@ -23993,7 +24004,7 @@
         <v>7.7588256230530606</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>399</v>
       </c>
@@ -24052,7 +24063,7 @@
         <v>5.3197502086904276</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>400</v>
       </c>
@@ -24111,7 +24122,7 @@
         <v>7.028642510849906</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>401</v>
       </c>
@@ -24170,7 +24181,7 @@
         <v>5.0242765930187554</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>402</v>
       </c>
@@ -24229,7 +24240,7 @@
         <v>5.749627796537677</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>403</v>
       </c>
@@ -24288,7 +24299,7 @@
         <v>8.7776378205274259</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>404</v>
       </c>
@@ -24347,7 +24358,7 @@
         <v>5.6522533473879424</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>405</v>
       </c>
@@ -24406,7 +24417,7 @@
         <v>10.2252686104066</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>406</v>
       </c>
@@ -24465,7 +24476,7 @@
         <v>7.8577594183393282</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>407</v>
       </c>
@@ -24524,7 +24535,7 @@
         <v>8.1711894078890506</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>408</v>
       </c>
@@ -24583,7 +24594,7 @@
         <v>7.4432540647842123</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>409</v>
       </c>
@@ -24642,7 +24653,7 @@
         <v>9.5456956770874459</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>410</v>
       </c>
@@ -24701,7 +24712,7 @@
         <v>9.566319775554021</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>411</v>
       </c>
@@ -24760,7 +24771,7 @@
         <v>8.6701087038243436</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>412</v>
       </c>
@@ -24819,7 +24830,7 @@
         <v>9.1295782118152964</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>413</v>
       </c>
@@ -24878,7 +24889,7 @@
         <v>7.5758206601591489</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>414</v>
       </c>
@@ -24937,7 +24948,7 @@
         <v>9.0844060138180964</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>415</v>
       </c>
@@ -24996,7 +25007,7 @@
         <v>7.3242444490523866</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>416</v>
       </c>
@@ -25055,7 +25066,7 @@
         <v>8.0044632443248034</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>417</v>
       </c>
@@ -25114,7 +25125,7 @@
         <v>7.4507125012674056</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>418</v>
       </c>
@@ -25173,7 +25184,7 @@
         <v>7.0855629213616078</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>419</v>
       </c>
@@ -25232,7 +25243,7 @@
         <v>6.6217764045564191</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>420</v>
       </c>
@@ -25291,7 +25302,7 @@
         <v>8.9353802077177704</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>421</v>
       </c>
@@ -25350,7 +25361,7 @@
         <v>10.621211825626929</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>422</v>
       </c>
@@ -25409,7 +25420,7 @@
         <v>10.34220394333912</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>423</v>
       </c>
@@ -25468,7 +25479,7 @@
         <v>5.4868693281091296</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>424</v>
       </c>
@@ -25527,7 +25538,7 @@
         <v>10.57840610281375</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>425</v>
       </c>
@@ -25586,7 +25597,7 @@
         <v>7.3636829967641422</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>426</v>
       </c>
@@ -25645,7 +25656,7 @@
         <v>9.2014660302911828</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>427</v>
       </c>
@@ -25704,7 +25715,7 @@
         <v>6.1875693359055779</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>428</v>
       </c>
@@ -25763,7 +25774,7 @@
         <v>8.28395982774801</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>429</v>
       </c>
@@ -25822,7 +25833,7 @@
         <v>8.6274463657938139</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>430</v>
       </c>
@@ -25881,7 +25892,7 @@
         <v>5.0307904161606949</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>431</v>
       </c>
@@ -25940,7 +25951,7 @@
         <v>9.2165343326883793</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>432</v>
       </c>
@@ -25999,7 +26010,7 @@
         <v>10.69187001567663</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>433</v>
       </c>
@@ -26058,7 +26069,7 @@
         <v>7.6507041086367442</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>434</v>
       </c>
@@ -26117,7 +26128,7 @@
         <v>10.72033626165603</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>435</v>
       </c>
@@ -26176,7 +26187,7 @@
         <v>7.620613013095185</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>436</v>
       </c>
@@ -26235,7 +26246,7 @@
         <v>9.6991690620932349</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>437</v>
       </c>
@@ -26294,7 +26305,7 @@
         <v>3.5628600680978009</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>438</v>
       </c>
@@ -26353,7 +26364,7 @@
         <v>12.83755555862693</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>439</v>
       </c>
@@ -26412,7 +26423,7 @@
         <v>10.99091649048591</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>440</v>
       </c>
@@ -26471,7 +26482,7 @@
         <v>7.4307489914926421</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>441</v>
       </c>
@@ -26530,7 +26541,7 @@
         <v>4.0558219467123644</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>442</v>
       </c>
@@ -26589,7 +26600,7 @@
         <v>8.5760567366109779</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>443</v>
       </c>
@@ -26648,7 +26659,7 @@
         <v>5.1121489058524858</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>444</v>
       </c>
@@ -26707,7 +26718,7 @@
         <v>8.8897070751149769</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>445</v>
       </c>
@@ -26766,7 +26777,7 @@
         <v>8.8231314383285646</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>446</v>
       </c>
@@ -26825,7 +26836,7 @@
         <v>6.1171936619959499</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>447</v>
       </c>
@@ -26884,7 +26895,7 @@
         <v>10.241934047228749</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>448</v>
       </c>
@@ -26943,7 +26954,7 @@
         <v>9.6111494056123465</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>449</v>
       </c>
@@ -27002,7 +27013,7 @@
         <v>9.9516466745771268</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>450</v>
       </c>
@@ -27061,7 +27072,7 @@
         <v>8.017715407337791</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>451</v>
       </c>
@@ -27120,7 +27131,7 @@
         <v>5.1689518661725868</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>452</v>
       </c>
@@ -27179,7 +27190,7 @@
         <v>9.9557445444222754</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>453</v>
       </c>
@@ -27238,7 +27249,7 @@
         <v>7.459257201728418</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>454</v>
       </c>
@@ -27297,7 +27308,7 @@
         <v>5.2204397136146614</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>455</v>
       </c>
@@ -27356,7 +27367,7 @@
         <v>10.70407873194865</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>456</v>
       </c>
@@ -27415,7 +27426,7 @@
         <v>12.19881504100502</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>457</v>
       </c>
@@ -27474,7 +27485,7 @@
         <v>7.9175037420415944</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>458</v>
       </c>
@@ -27533,7 +27544,7 @@
         <v>12.31824230920658</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>459</v>
       </c>
@@ -27592,7 +27603,7 @@
         <v>8.1826294572226992</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>460</v>
       </c>
@@ -27651,7 +27662,7 @@
         <v>7.2390881916672978</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>461</v>
       </c>
@@ -27710,7 +27721,7 @@
         <v>6.7390830916290447</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>462</v>
       </c>
@@ -27769,7 +27780,7 @@
         <v>11.274164815985481</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>463</v>
       </c>
@@ -27828,7 +27839,7 @@
         <v>6.4397122372244562</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>464</v>
       </c>
@@ -27887,7 +27898,7 @@
         <v>9.4705386199499753</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>465</v>
       </c>
@@ -27946,7 +27957,7 @@
         <v>6.8816723298815834</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>466</v>
       </c>
@@ -28005,7 +28016,7 @@
         <v>7.0793864748512743</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>467</v>
       </c>
@@ -28064,7 +28075,7 @@
         <v>10.06049938793913</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>468</v>
       </c>
@@ -28123,7 +28134,7 @@
         <v>7.2399263074212934</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>469</v>
       </c>
@@ -28182,7 +28193,7 @@
         <v>7.1904092411594132</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>470</v>
       </c>
@@ -28241,7 +28252,7 @@
         <v>10.26560939434961</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>471</v>
       </c>
@@ -28300,7 +28311,7 @@
         <v>11.194794586443249</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>472</v>
       </c>
@@ -28359,7 +28370,7 @@
         <v>9.2893796065684668</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>473</v>
       </c>
@@ -28418,7 +28429,7 @@
         <v>6.690460448752102</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>474</v>
       </c>
@@ -28477,7 +28488,7 @@
         <v>6.9787830014048406</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>475</v>
       </c>
@@ -28536,7 +28547,7 @@
         <v>8.1598305274800751</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>476</v>
       </c>
@@ -28595,7 +28606,7 @@
         <v>8.6418601238513144</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>477</v>
       </c>
@@ -28654,7 +28665,7 @@
         <v>6.0242681797204556</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>478</v>
       </c>
@@ -28713,7 +28724,7 @@
         <v>9.4460758791597286</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>479</v>
       </c>
@@ -28772,7 +28783,7 @@
         <v>8.1710266592791978</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>480</v>
       </c>
@@ -28831,7 +28842,7 @@
         <v>4.5685833627237411</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>481</v>
       </c>
@@ -28890,7 +28901,7 @@
         <v>6.1421470350785388</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>482</v>
       </c>
@@ -28949,7 +28960,7 @@
         <v>6.9917426526966722</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>483</v>
       </c>
@@ -29008,7 +29019,7 @@
         <v>7.8542846223178886</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>484</v>
       </c>
@@ -29067,7 +29078,7 @@
         <v>11.77855759100799</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>485</v>
       </c>
@@ -29126,7 +29137,7 @@
         <v>8.4763426122792573</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>486</v>
       </c>
@@ -29185,7 +29196,7 @@
         <v>6.3184562202027497</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>487</v>
       </c>
@@ -29244,7 +29255,7 @@
         <v>8.441261608614326</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>488</v>
       </c>
@@ -29303,7 +29314,7 @@
         <v>7.2958245050922379</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>489</v>
       </c>
@@ -29362,7 +29373,7 @@
         <v>8.6495164790670831</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>490</v>
       </c>
@@ -29421,7 +29432,7 @@
         <v>9.1611353740712289</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>491</v>
       </c>
@@ -29480,7 +29491,7 @@
         <v>10.41846129444788</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>492</v>
       </c>
@@ -29539,7 +29550,7 @@
         <v>7.9514270086599481</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>493</v>
       </c>
@@ -29598,7 +29609,7 @@
         <v>11.27792105519967</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>494</v>
       </c>
@@ -29657,7 +29668,7 @@
         <v>9.8160453250723823</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>495</v>
       </c>
@@ -29716,7 +29727,7 @@
         <v>6.5851209103756254</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>496</v>
       </c>
@@ -29775,7 +29786,7 @@
         <v>12.419711331496931</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>497</v>
       </c>
@@ -29834,7 +29845,7 @@
         <v>8.6539890265401951</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>498</v>
       </c>
@@ -29893,7 +29904,7 @@
         <v>6.3297509920555299</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>499</v>
       </c>
@@ -29952,7 +29963,7 @@
         <v>11.30582610246084</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>500</v>
       </c>
